--- a/db/TGN-5101-TainanFood-01.xlsx
+++ b/db/TGN-5101-TainanFood-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F86B6FE-92B0-8545-A140-0700F59B701C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561FF40A-7100-1846-B559-DEB50586C9A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="1640" windowWidth="37280" windowHeight="26340" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="37280" windowHeight="26340" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="187">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,6 +510,249 @@
   </si>
   <si>
     <t>這間身在台南小巷弄的海產粥，店面雖小，但卻非常厲害，每到假日人潮絡繹不絕，一週只營業三天，更讓人有非吃到不可的毅力排隊XD主要提供海鮮粥或海鮮拉麵，再依據個人喜好可以選擇不一樣的湯頭（原味、味噌、麻辣），當然也有海鮮湯可以選，就算吃太飽也可以進來喝碗湯享受一下海的滋味，海鮮粥滿滿一碗料，裡面有蝦子、蚵仔、蛤仔、小卷等，湯頭結合海鮮味，米飯吸飽湯汁和海鮮合而為一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lilyfruit.com.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>fig/TGN-5102-Food-15.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5102-Food-16.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5102-Food-17.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5102-Food-18.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5102-Food-19.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5102-Food-20.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5102-Food-21.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGN-5102-Food-22.jpg</t>
+  </si>
+  <si>
+    <t>莉莉水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區府前路一段199號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走過一甲子歲月的台南老字號「莉莉水果店」(Lily Fruits Store)，店攤上的豔麗果物彷彿施展化妝品之效，讓應該像個老奶奶的冰果室還是保有一股青春氣質！花樣多變地端出新鮮果汁、水果刨冰、水果切盤等，提供充滿果香味的沁涼香甜，這兒更承載了許多人的府城飲食回憶，那些年一起吃過的冰與畫面歷歷在目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果切盤, 果汁，刨冰，豆花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jk0933353428/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南市台南市中西區友愛街170號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:40 - 19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖糕 蕃薯椪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游爸爸 白糖糕 蕃薯椪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游爸爸的菜單如下，除了芋頭餅、白糖糕、蕃薯椪之外，還有加了芝麻粉的黑麻麻，以及沙拉系列、脆皮系列，選擇更多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿龍香腸熟肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AA09250925/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30 - 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+臺南市中西區保安路34號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香腸、白蘿蔔、豬舌、粉肝、章魚、鱘丸…等等，一份為20元　
+沾上一旁店家特調的沾醬，甜油膏與黃芥茉醬，
+新鮮的食材沾上醬料後，真的是簡單卻很美味的小吃～我好喜歡！！　
+照片中黃色的就是台南獨有的鱘丸，就像蛋糕一般，切成一片片超特別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香腸、白蘿蔔、豬舌、粉肝、章魚、鱘丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E5%AF%8C%E7%9B%9B%E8%99%9F%E7%A2%97%E7%B2%BF-365378253596213/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富盛號碗粿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說到富盛號碗粿應該是許多觀光客來台南必吃的小吃之一，再加上隔壁的金得春捲，
+以及對面的阿松割包被稱為國華街金三角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碗粿和魚焿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00~17:30 (週四公休)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yi-feng.com.tw/about-us.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>義豐阿川冬瓜茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座落於永福路上祀典武廟對面的「義豐冬瓜工廠」，是府城碩果僅存的傳統製作冬瓜糖的老店。現年八十歲的第三代傳人林嵩山先生，親身見證了冬瓜糖的興衰史，在超過半個世紀經營祖傳冬瓜工廠的過程中，始終堅持遵循古法，以手工熬煮製作冬瓜糖、冬瓜露、冰糖，對他而言，這是對先祖代代相傳的技藝的尊重，也是忠於原味的最高表現。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區永福路二段216號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區西門路二段333巷5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜茶，冬瓜塊, 冬瓜露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區永福路二段194號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30-16:00 (星期二公休)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武廟肉圓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>創立於1975年的武廟肉圓，本來是路邊擺的攤子沒有店名，由於在武廟前擺久了大家就稱為〝武廟肉圓〞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tiffany0118.com/wumiao-meatball/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tuktukchacha/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市國華街三段111號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30~18:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">龜龜毛毛泰國奶茶 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以「泰國街頭小吃」為出發點，簡單的擺設與裝飾，再利用老建築營造出街頭日常的質感。菜色當然不外乎秉持著「龜毛」料理，從最具代表性的「酸辣Mama麵」到香甜的「香蘭卡士達醬烤吐司」，和新推出的特色飲品，絕對都是用心下去製作的泰式美食！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sunice.062259375/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+臺南市台南市中西區民權路一段41號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太陽牌冰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在台南，一間超過五十年載的店似乎不是一件太過稀奇的事，但來自台北的我們，往往會被這樣的數字給吸引。
+那是還只有黑白電視的年代，太陽牌以手工芋仔冰聞名，曾為台南最大芋冰批發商，讓在地退伍軍人批貨後經營叭噗車而有了生計；傳承至今已經來到了第二代，太陽牌仍然在台南屹立不搖，除了經典的芋冰，也多了更多人氣的選擇，如今到來的人們不再是為了生計，更多的是想要回味記憶裡的香甜滋味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各類冰品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,13 +1142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1401,6 +1644,262 @@
         <v>114</v>
       </c>
     </row>
+    <row r="16" spans="1:10" ht="96">
+      <c r="A16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="32">
+      <c r="A17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="96">
+      <c r="A18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="48">
+      <c r="A19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="96">
+      <c r="A20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="48">
+      <c r="A21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="80">
+      <c r="A22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="128">
+      <c r="A23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1412,6 +1911,14 @@
     <hyperlink ref="J9" r:id="rId6" xr:uid="{00C585D0-7D58-284C-821C-55F0A50F5984}"/>
     <hyperlink ref="J10" r:id="rId7" xr:uid="{6D1A4C7E-CA8C-FB42-A95C-A4B0CA6E5A5B}"/>
     <hyperlink ref="J11" r:id="rId8" xr:uid="{151B7429-E7EE-8047-9759-25E4EA2DDDEC}"/>
+    <hyperlink ref="J16" r:id="rId9" xr:uid="{95A440BA-5FB0-8648-BA6C-AD8A81DDE6F4}"/>
+    <hyperlink ref="J17" r:id="rId10" xr:uid="{729D4775-628C-624A-9591-41E8C8BC89B2}"/>
+    <hyperlink ref="J18" r:id="rId11" xr:uid="{801AEC14-3311-3943-9138-28491EE02D48}"/>
+    <hyperlink ref="J19" r:id="rId12" xr:uid="{6A5CCCE4-F2B4-E54F-AF4B-6EADDC93144F}"/>
+    <hyperlink ref="J20" r:id="rId13" xr:uid="{9E5E8EE1-74A6-2148-84BB-4C8F9274E4FA}"/>
+    <hyperlink ref="J21" r:id="rId14" xr:uid="{8EF7F225-0AB6-FC45-86E9-C9098B64D5FC}"/>
+    <hyperlink ref="J22" r:id="rId15" xr:uid="{D38F692E-F437-5846-957E-8DA57F436D48}"/>
+    <hyperlink ref="J23" r:id="rId16" xr:uid="{D0FDF516-090E-B64E-9DB3-4B0339C414E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/TGN-5101-TainanFood-01.xlsx
+++ b/db/TGN-5101-TainanFood-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561FF40A-7100-1846-B559-DEB50586C9A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C6D3B8-D691-8B49-9691-799E49A24AC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="500" windowWidth="37280" windowHeight="26340" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="12740" yWindow="7580" windowWidth="37280" windowHeight="26340" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1145,10 +1145,10 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD33"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/db/TGN-5101-TainanFood-01.xlsx
+++ b/db/TGN-5101-TainanFood-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C6D3B8-D691-8B49-9691-799E49A24AC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B886692-4908-464F-9905-2C3F9239660F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="7580" windowWidth="37280" windowHeight="26340" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="22780" yWindow="4320" windowWidth="37280" windowHeight="26340" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="195">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -753,6 +753,37 @@
   </si>
   <si>
     <t>各類冰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>fig/TGN-5102-Food-23.jpg</t>
+  </si>
+  <si>
+    <t>周氏蝦捲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chous.com.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區府前路二段108號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30～14:30 / 17:30~22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦捲，海鮮派，鮮蝦餅, 紅豆豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周氏蝦捲創始人周進根先生表示，早在五十年前他的父親就從事魚丸類小吃，周進根接手後就在觀音亭旁賣起自助餐，而蝦捲便是其中一道菜，由於蝦仁料好實在，風味又獨特，許多食客專點蝦捲吃，所以便改為專賣蝦捲。
+周氏蝦捲源自於1965年當時創辦人周進根先生原本是辦外燴的﹝總舖師﹞，然而外燴不是天天都有生意，於是在閒暇時於台南安平經營小吃生意，當時販賣多種小吃，而蝦捲僅是其中一道菜。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,13 +1173,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1898,6 +1929,38 @@
       </c>
       <c r="J23" s="4" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="144">
+      <c r="A24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1919,6 +1982,7 @@
     <hyperlink ref="J21" r:id="rId14" xr:uid="{8EF7F225-0AB6-FC45-86E9-C9098B64D5FC}"/>
     <hyperlink ref="J22" r:id="rId15" xr:uid="{D38F692E-F437-5846-957E-8DA57F436D48}"/>
     <hyperlink ref="J23" r:id="rId16" xr:uid="{D0FDF516-090E-B64E-9DB3-4B0339C414E5}"/>
+    <hyperlink ref="J24" r:id="rId17" xr:uid="{F94EAC10-7A4F-2C47-AED4-70A9DC2C138D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/TGN-5101-TainanFood-01.xlsx
+++ b/db/TGN-5101-TainanFood-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B886692-4908-464F-9905-2C3F9239660F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FC11D6-E61C-5341-B78B-B4EF5CF96E06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22780" yWindow="4320" windowWidth="37280" windowHeight="26340" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="12760" yWindow="2460" windowWidth="37280" windowHeight="26340" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提到保安路美食，絕對不能遺漏阿明豬心冬粉，傍晚五點一到便開始大排長龍至凌晨，以前老闆阿明以絕佳的記憶力著稱，不需要菜單便可以記住所有客人點過的品項，真的令小編非常讚嘆，這幾年開始使用點菜單，雖然無法目睹老闆阿明的驚人能力，但可以提早做好選擇且價格也更透明化。店內有名的不僅僅是豬心冬粉，還有好多小編的私心清單，例如軟嫩鮮美的麻油腰只、香氣十足帶有嚼勁的蒜頭豬腳以及限量版的濃厚鴨腳翅，雖然單項的價格都不便宜，但這個好味道還是令小編難忘不已！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台南市中西區保安路72號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蝦仁飯也是小編在台北沒吃過的東西，蝦仁保留了最原始的口感，米飯則是泡著醬汁，不僅更軟更好入口，也融合了蔥和醬油的香甜。如果覺得蝦仁不夠多，可以選擇加蝦或是加肉絲的版本，搭配半熟蛋更是一絕！還有蝦仁鴨蛋湯也人氣很高.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>和集品兩間各有擁護者，選用火燒蝦，先炒蝦仁後撈起，再加入高湯和米分一起炒，最後鋪上炒好的蝦仁，米飯帶有淡淡鹹味、口感偏濕潤，搭配一顆香煎鴨蛋，拌著蛋吃更美味！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,10 +494,6 @@
   </si>
   <si>
     <t>以道地的廣東汕頭沙茶火鍋為基底，到現在已經是第四代經營，坐落在中西區的巷子裡，飄著濃厚的香味，尤其自製沙茶醬是本店的招牌，以花生粉、炸蒜頭、紅糟等三十幾種中藥拌製而成，有著特別的香氣，甘甜又不油膩，讓簡單的火鍋帶來更有深度的味道.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說到台南牛肉湯，大家一定都知道有一間要早起才喝的到的牛肉湯，就是六千拉！排隊時店家會發號碼牌，記得要領取喔～鮮切的溫體牛肉淋上高湯，將牛肉的鮮甜都留住，肉片嫩湯頭鮮甜，難怪大家願意一早排隊來吃一上一碗，牛骨髓跟牛心湯也是很多人推薦的選項，若是多人來可以點不一樣的都吃看看，有時候晚點到會只剩牛腩湯，帶筋的牛腩又軟又嫩，不帶血味，也非常值得一試！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -626,13 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香腸、白蘿蔔、豬舌、粉肝、章魚、鱘丸…等等，一份為20元　
-沾上一旁店家特調的沾醬，甜油膏與黃芥茉醬，
-新鮮的食材沾上醬料後，真的是簡單卻很美味的小吃～我好喜歡！！　
-照片中黃色的就是台南獨有的鱘丸，就像蛋糕一般，切成一片片超特別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>香腸、白蘿蔔、豬舌、粉肝、章魚、鱘丸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,11 +623,6 @@
   </si>
   <si>
     <t>富盛號碗粿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說到富盛號碗粿應該是許多觀光客來台南必吃的小吃之一，再加上隔壁的金得春捲，
-以及對面的阿松割包被稱為國華街金三角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -747,11 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在台南，一間超過五十年載的店似乎不是一件太過稀奇的事，但來自台北的我們，往往會被這樣的數字給吸引。
-那是還只有黑白電視的年代，太陽牌以手工芋仔冰聞名，曾為台南最大芋冰批發商，讓在地退伍軍人批貨後經營叭噗車而有了生計；傳承至今已經來到了第二代，太陽牌仍然在台南屹立不搖，除了經典的芋冰，也多了更多人氣的選擇，如今到來的人們不再是為了生計，更多的是想要回味記憶裡的香甜滋味。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>各類冰品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,6 +755,32 @@
   <si>
     <t>周氏蝦捲創始人周進根先生表示，早在五十年前他的父親就從事魚丸類小吃，周進根接手後就在觀音亭旁賣起自助餐，而蝦捲便是其中一道菜，由於蝦仁料好實在，風味又獨特，許多食客專點蝦捲吃，所以便改為專賣蝦捲。
 周氏蝦捲源自於1965年當時創辦人周進根先生原本是辦外燴的﹝總舖師﹞，然而外燴不是天天都有生意，於是在閒暇時於台南安平經營小吃生意，當時販賣多種小吃，而蝦捲僅是其中一道菜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦仁飯也是台北少有的東西，蝦仁保留了最原始的口感，米飯則是泡著醬汁，不僅更軟更好入口，也融合了蔥和醬油的香甜。如果覺得蝦仁不夠多，可以選擇加蝦或是加肉絲的版本，搭配半熟蛋更是一絕！還有蝦仁鴨蛋湯也人氣很高.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提到保安路美食，絕對不能遺漏阿明豬心冬粉，傍晚五點一到便開始大排長龍至凌晨，以前老闆阿明以絕佳的記憶力著稱，不需要菜單便可以記住所有客人點過的品項，真的令人非常讚嘆，這幾年開始使用點菜單，雖然無法目睹老闆阿明的驚人能力，但可以提早做好選擇且價格也更透明化。店內有名的不僅僅是豬心冬粉，還有好多私心清單，例如軟嫩鮮美的麻油腰只、香氣十足帶有嚼勁的蒜頭豬腳以及限量版的濃厚鴨腳翅，雖然單項的價格都不便宜，但這個好味道還是令人難忘不已！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說到台南牛肉湯，大家一定都知道有一間要早起才喝的到的牛肉湯，就是六千！排隊時店家會發號碼牌，記得要領取喔～鮮切的溫體牛肉淋上高湯，將牛肉的鮮甜都留住，肉片嫩湯頭鮮甜，難怪大家願意一早排隊來吃一上一碗，牛骨髓跟牛心湯也是很多人推薦的選項，若是多人來可以點不一樣的都吃看看，有時候晚點到會只剩牛腩湯，帶筋的牛腩又軟又嫩，不帶血味，也非常值得一試！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香腸、白蘿蔔、豬舌、粉肝、章魚、鱘丸…等等，一份為20元　沾上一旁店家特調的沾醬，甜油膏與黃芥茉醬，新鮮的食材沾上醬料後，真的是簡單卻很美味的小吃！　
+照片中黃色的就是台南獨有的鱘丸，就像蛋糕一般，切成一片片超特別。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說到富盛號碗粿應該是許多觀光客來台南必吃的小吃之一，再加上隔壁的金得春捲，以及對面的阿松割包被稱為國華街金三角。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在台南，一間超過五十年載的店似乎不是一件太過稀奇的事，但來自台北的，往往會被這樣的數字給吸引。
+那是還只有黑白電視的年代，太陽牌以手工芋仔冰聞名，曾為台南最大芋冰批發商，讓在地退伍軍人批貨後經營叭噗車而有了生計；傳承至今已經來到了第二代，太陽牌仍然在台南屹立不搖，除了經典的芋冰，也多了更多人氣的選擇，如今到來的人們不再是為了生計，更多的是想要回味記憶裡的香甜滋味。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1176,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD27"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1241,7 +1238,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
@@ -1273,7 +1270,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>34</v>
@@ -1305,7 +1302,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>39</v>
@@ -1337,7 +1334,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>45</v>
@@ -1369,7 +1366,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>51</v>
@@ -1387,7 +1384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="144">
+    <row r="7" spans="1:10" ht="128">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1401,22 +1398,22 @@
         <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="112">
@@ -1430,25 +1427,25 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="96">
@@ -1462,25 +1459,25 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="80">
@@ -1494,25 +1491,25 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="96">
@@ -1526,25 +1523,25 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="112">
@@ -1558,25 +1555,25 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="96">
@@ -1590,25 +1587,25 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="112">
@@ -1622,25 +1619,25 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="80">
@@ -1654,30 +1651,30 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="96">
       <c r="A16" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1686,30 +1683,30 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="32">
       <c r="A17" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1718,62 +1715,62 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="80">
+      <c r="A18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="96">
-      <c r="A18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="48">
       <c r="A19" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1782,30 +1779,30 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="96">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1814,30 +1811,30 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="48">
       <c r="A21" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1846,30 +1843,30 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="80">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1878,30 +1875,30 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="128">
       <c r="A23" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1910,57 +1907,57 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="144">
       <c r="A24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
